--- a/Exam/Exam2/考前大猜題.xlsx
+++ b/Exam/Exam2/考前大猜題.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="各組報告" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,17 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Sec8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>題目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,6 +59,442 @@
   <si>
     <t>contrast enhancement
 method, such as log transformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sec9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wraparound Error in Convolution</t>
+  </si>
+  <si>
+    <t>Solution: zero padding 
+Typically we just double the size of the image in both directions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>題目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notch Filter 為帶拒濾波器，也可稱為帶阻濾波器，目的在將某一特定頻率濾除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高通濾波器（英語：High-pass filter）是容許高頻信號通過、但減弱（或減少）頻率低於截止頻率信號通過的濾波器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Large mask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Frequency domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> filtering is usually faster due to the use of FFT</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Small mask </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Spatial domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> filtering is usually faster</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頻域濾波通常更直觀。 可以在頻域做實驗，得到想要的結果，然後找到一個近似對應的空域濾波器，以便更快地執行。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Low Pass Filters (LPF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+Idea
+To reduce high frequency components
+Corresponding
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>to Smoothing filters</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Gaussian LPF The impulse response is also Gaussian (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>no ringing!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>High Pass Filters (HPF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+Idea
+To reduce low frequency components
+Corresponding
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>to Sharpening filters</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">frequency reciprocity: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>stronger the LPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> is
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>smaller D 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> ), the wider the peak in h(x,y) is, and hence the
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>more visible ringing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> after filtering.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A band reject filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image degradation
+圖像質量下降：圖像質量下降是由於不同原因導致圖像質量下降的行為。在圖像質量下降的情況下，圖像會變得模糊並在很大程度上失去其質量。
+Image restoration
+圖像恢復：圖像恢復是在照片編輯器軟件的幫助下增強或提高圖像質量的過程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inverse Filtering Goal: To undo the effect of degradation function 同除H(u,v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When H is small (usually at higher frequencies),
+the actual noise can dominate the result of inverse filtering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Band-limiting (ignoring higher frequencies).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compression: The process of reducing the amount of data while preserving as much information as possible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wiener Filtering is another image restoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three types of data redundancy involved in image compression:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding redundancy:
+Spatial and temporal redundancy:
+Irrelevant information:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fidelity Criteria保真標準 for lossy coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMS、SNR、human viewers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codewords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huffman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arithmetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LZW and similar methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sec10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gray codes 格雷碼最大限度地減少了因灰度值的微小變化而改變的位數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G03: Super-resolution</t>
+  </si>
+  <si>
+    <t>G09: Color correction and color enhancement</t>
+  </si>
+  <si>
+    <t>G02: High-dynamic-range (HDR) imaging</t>
+  </si>
+  <si>
+    <t>G10: Hyper-spectral images: Types and examples, visualization, and issues in processing</t>
+  </si>
+  <si>
+    <t>G13: Depth images: Acquisition, issues in processing, and integration with RGB images</t>
+  </si>
+  <si>
+    <t>G06: Representation of region shapes, both boundary and skeleton based</t>
+  </si>
+  <si>
+    <t>G14: Segmentation with motion: Background-foreground segmentation and motion based object segmentation</t>
+  </si>
+  <si>
+    <t>G08: Active shape models and active appearance models</t>
+  </si>
+  <si>
+    <t>G05: Application case study: OCR: Main steps, challenges, and representative techniques</t>
+  </si>
+  <si>
+    <t>G07: Visual saliency: Methods of identification and applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01: Application case study: Gaze tracking: Methods and applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼動追蹤，是指通過測量眼睛的注視點的位置或者眼球相對頭部的運動而實現對眼球運動的追蹤。眼動儀是一種能夠跟蹤測量眼球位置及眼球運動信息的一種設備，在視覺系統、心理學、認知語言學的研究中有廣泛的應用。目前眼動追蹤有多種方法，其中最常用的無創手段是通過視頻拍攝設備來獲取眼睛的位置</t>
+  </si>
+  <si>
+    <t>G12: Image database and retrieval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G11: Lossless image codecs: GIF, PNG, and JPEG-LS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G04: Image and video quality assessment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G03：超分辨率</t>
+  </si>
+  <si>
+    <t>G09：色彩校正和色彩增強</t>
+  </si>
+  <si>
+    <t>G02：高動態範圍 (HDR) 成像</t>
+  </si>
+  <si>
+    <t>G10：超光譜圖像：類型和示例、可視化以及處理中的問題</t>
+  </si>
+  <si>
+    <t>G13：深度圖像：採集、處理中的問題以及與 RGB 圖像的集成</t>
+  </si>
+  <si>
+    <t>G06：區域形狀的表示，基於邊界和骨架</t>
+  </si>
+  <si>
+    <t>G14：運動分割：背景-前景分割和基於運動的對象分割</t>
+  </si>
+  <si>
+    <t>G08：主動形狀模型和主動外觀模型</t>
+  </si>
+  <si>
+    <t>G04：圖像和視頻質量評估</t>
+  </si>
+  <si>
+    <t>G05：應用案例研究：OCR：主要步驟、挑戰和代表性技術</t>
+  </si>
+  <si>
+    <t>G12：圖像數據庫和檢索</t>
+  </si>
+  <si>
+    <t>顯著圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G11：無損圖像編解碼器：GIF、PNG 和 JPEG-LS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +516,40 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,13 +572,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -204,6 +685,44 @@
         <a:xfrm>
           <a:off x="4953000" y="2257425"/>
           <a:ext cx="923925" cy="488849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7781925"/>
+          <a:ext cx="2638425" cy="1282793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -478,63 +997,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="47.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -543,4 +1218,137 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>